--- a/Excel/TidsKompleksitet.xlsx
+++ b/Excel/TidsKompleksitet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D13BDE-C928-464D-915C-8CFAFA8F065E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A875764-484D-43A5-812F-9CC935104343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Sum Af Elementer</t>
   </si>
@@ -51,12 +51,67 @@
   <si>
     <t>Facult</t>
   </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>Sortering</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Search type</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>Time(Ticks)</t>
+  </si>
+  <si>
+    <t>Size --&gt;</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>*100</t>
+  </si>
+  <si>
+    <t>Insert Sort</t>
+  </si>
+  <si>
+    <t>Insert Sort(Fast)</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="200" formatCode="0.0"/>
+    <numFmt numFmtId="201" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="202" formatCode="0_ ;\-0\ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,15 +145,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1653,15 +1717,36 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14255136816138517"/>
+          <c:y val="0.20709091956241421"/>
+          <c:w val="0.78582279664930521"/>
+          <c:h val="0.53565969143192271"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facult</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1670,74 +1755,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:val>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$S$3:$S$5</c:f>
+              <c:f>'Ark1'!$X$3:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>109772</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7107521</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>720841144</c:v>
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$W$3:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DF3-4972-80A4-E93C25CBA1E7}"/>
+              <c16:uniqueId val="{00000002-AA3D-4CF8-9DC1-2FB3E44DA1C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1749,17 +1826,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="529348264"/>
-        <c:axId val="529348592"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="529348264"/>
+        <c:axId val="240523664"/>
+        <c:axId val="240524320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="240523664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1769,8 +1859,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1797,17 +1887,13 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529348592"/>
+        <c:crossAx val="240524320"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="529348592"/>
+        <c:axId val="240524320"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1832,8 +1918,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1857,9 +1949,41 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529348264"/>
+        <c:crossAx val="240523664"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1869,6 +1993,1943 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$T$3:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$S$3:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>109772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7107521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720841144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77571387876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B924-4E4A-BB12-21B3C4D6C349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="240523664"/>
+        <c:axId val="240524320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="240523664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240524320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="240524320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240523664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14255136816138517"/>
+          <c:y val="0.20709091956241421"/>
+          <c:w val="0.78582279664930521"/>
+          <c:h val="0.53565969143192271"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sortering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AA$3:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>100656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5743622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>555093799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55509379900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5550937990000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A05-4588-8E3D-C0AC52F979D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="240523664"/>
+        <c:axId val="240524320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="240523664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240524320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="240524320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240523664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ED98-42B1-89AF-CDDCCDA30740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ED98-42B1-89AF-CDDCCDA30740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="240523664"/>
+        <c:axId val="240524320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="240523664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240524320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="240524320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240523664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0_ ;\-0\ ">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ;\-0\ ">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0_ ;\-0\ ">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ;\-0\ ">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$41:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3277763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318068493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2ED8-4188-81CA-7F1AB561B105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0_ ;\-0\ ">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ;\-0\ ">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0_ ;\-0\ ">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ;\-0\ ">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$42:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175188606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2ED8-4188-81CA-7F1AB561B105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insert Sort(Fast)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0_ ;\-0\ ">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ;\-0\ ">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0_ ;\-0\ ">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ;\-0\ ">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$43:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>869472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78648132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2ED8-4188-81CA-7F1AB561B105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0_ ;\-0\ ">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0_ ;\-0\ ">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0_ ;\-0\ ">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0_ ;\-0\ ">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0_ ;\-0\ ">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1253463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117081237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2ED8-4188-81CA-7F1AB561B105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="240523664"/>
+        <c:axId val="240524320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="240523664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240524320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="240524320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240523664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2106,6 +4167,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4171,7 +6392,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4198,8 +6419,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4279,11 +6500,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4294,11 +6510,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4310,7 +6521,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4330,9 +6541,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4345,10 +6553,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4388,22 +6596,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4508,8 +6717,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4641,19 +6850,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4667,6 +6877,2081 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4838,27 +9123,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>24766</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>62866</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagram 9">
+        <xdr:cNvPr id="13" name="Diagram 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50D3741-8753-4394-8284-F1F368170AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D544E474-0ED5-41CE-B3FF-F1593BB450C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4867,6 +9154,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Diagram 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BE6948-8103-4FCB-8206-4735DE60D749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Diagram 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC96C9B-43C9-43A4-AA39-66A11433D5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Diagram 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D063BFDD-9420-4BAA-901B-B496F8C51AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1217295</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Diagram 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC22D6B0-5C20-4A15-BDE3-06F6E75C5072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5138,26 +9577,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="14" width="12.44140625" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" customWidth="1"/>
     <col min="19" max="20" width="14.44140625" customWidth="1"/>
     <col min="23" max="24" width="13.21875" customWidth="1"/>
+    <col min="27" max="27" width="23.5546875" customWidth="1"/>
+    <col min="28" max="28" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5179,8 +9624,11 @@
       <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5223,8 +9671,14 @@
       <c r="X2" t="s">
         <v>1</v>
       </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>55</v>
       </c>
@@ -5262,13 +9716,19 @@
         <v>1000</v>
       </c>
       <c r="W3">
-        <v>2264845</v>
+        <v>1665</v>
       </c>
       <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>100656</v>
+      </c>
+      <c r="AB3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>213</v>
       </c>
@@ -5305,11 +9765,20 @@
       <c r="T4">
         <v>10000</v>
       </c>
+      <c r="W4">
+        <v>1649</v>
+      </c>
       <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>5743622</v>
+      </c>
+      <c r="AB4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1866</v>
       </c>
@@ -5346,11 +9815,20 @@
       <c r="T5">
         <v>100000</v>
       </c>
+      <c r="W5">
+        <v>10467</v>
+      </c>
       <c r="X5">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>555093799</v>
+      </c>
+      <c r="AB5">
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>43550</v>
       </c>
@@ -5381,14 +9859,29 @@
       <c r="P6">
         <v>1000000</v>
       </c>
+      <c r="S6">
+        <v>77571387876</v>
+      </c>
       <c r="T6">
         <v>1000000</v>
       </c>
+      <c r="W6">
+        <v>2026060</v>
+      </c>
       <c r="X6">
+        <v>1000</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>55509379900</v>
+      </c>
+      <c r="AB6">
         <v>1000000</v>
       </c>
+      <c r="AC6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>179720</v>
       </c>
@@ -5419,11 +9912,260 @@
       <c r="P7">
         <v>10000000</v>
       </c>
+      <c r="S7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="T7">
         <v>10000000</v>
       </c>
+      <c r="W7" t="s">
+        <v>10</v>
+      </c>
       <c r="X7">
+        <v>10000</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>55509379900*100</f>
+        <v>5550937990000</v>
+      </c>
+      <c r="AB7">
         <v>10000000</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23">
+        <v>100000</v>
+      </c>
+      <c r="F23">
+        <v>1000000</v>
+      </c>
+      <c r="G23">
+        <v>10000000</v>
+      </c>
+      <c r="H23">
+        <v>100000000</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="J23">
+        <v>10000000000</v>
+      </c>
+      <c r="K23">
+        <v>100000000000</v>
+      </c>
+      <c r="L23">
+        <v>1000000000000</v>
+      </c>
+      <c r="M23">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>859</v>
+      </c>
+      <c r="C24">
+        <v>857</v>
+      </c>
+      <c r="D24">
+        <v>934</v>
+      </c>
+      <c r="E24">
+        <v>870</v>
+      </c>
+      <c r="F24">
+        <v>1035</v>
+      </c>
+      <c r="G24">
+        <v>1404</v>
+      </c>
+      <c r="H24">
+        <v>1518</v>
+      </c>
+      <c r="I24">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>890</v>
+      </c>
+      <c r="C25">
+        <v>852</v>
+      </c>
+      <c r="D25">
+        <v>776</v>
+      </c>
+      <c r="E25">
+        <v>783</v>
+      </c>
+      <c r="F25">
+        <v>897</v>
+      </c>
+      <c r="G25">
+        <v>898</v>
+      </c>
+      <c r="H25">
+        <v>844</v>
+      </c>
+      <c r="I25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="6">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
+        <v>100</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F40" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="H40" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>1463</v>
+      </c>
+      <c r="C41">
+        <v>1725</v>
+      </c>
+      <c r="D41">
+        <v>25515</v>
+      </c>
+      <c r="E41">
+        <v>3277763</v>
+      </c>
+      <c r="F41">
+        <v>318068493</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>1685</v>
+      </c>
+      <c r="C42">
+        <v>1711</v>
+      </c>
+      <c r="D42">
+        <v>18126</v>
+      </c>
+      <c r="E42">
+        <v>1996259</v>
+      </c>
+      <c r="F42">
+        <v>175188606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>1563</v>
+      </c>
+      <c r="C43">
+        <v>2344</v>
+      </c>
+      <c r="D43">
+        <v>10644</v>
+      </c>
+      <c r="E43">
+        <v>869472</v>
+      </c>
+      <c r="F43">
+        <v>78648132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>1466</v>
+      </c>
+      <c r="C44">
+        <v>1599</v>
+      </c>
+      <c r="D44">
+        <v>13329</v>
+      </c>
+      <c r="E44">
+        <v>1253463</v>
+      </c>
+      <c r="F44">
+        <v>117081237</v>
       </c>
     </row>
   </sheetData>
